--- a/results_analysis/spark_cervicalCancer_02_hold2.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE09FC-91D3-4170-A195-77658A18812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122117D1-2A1B-4CF8-8AB5-3177F5A115BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,16 +617,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -644,16 +635,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -666,9 +648,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +672,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1014,19 +999,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,7 +1059,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>0.85267702936096701</v>
       </c>
       <c r="E5" s="12">
@@ -1095,7 +1080,7 @@
       <c r="J5" s="12">
         <v>0.87789291882556098</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="46">
         <v>0.83402417962003506</v>
       </c>
     </row>
@@ -1104,7 +1089,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="47">
         <v>0.89119170984455998</v>
       </c>
       <c r="E6" s="13">
@@ -1137,7 +1122,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="47">
         <v>0.85906735751295304</v>
       </c>
       <c r="E7" s="13">
@@ -1168,7 +1153,7 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="48">
         <v>0.90587219343696002</v>
       </c>
       <c r="E8" s="14">
@@ -1189,7 +1174,7 @@
       <c r="J8" s="14">
         <v>0.90189982728842799</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="49">
         <v>0.89050086355785796</v>
       </c>
     </row>
@@ -1203,28 +1188,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="50">
         <v>0.86407599309153704</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="51">
         <v>0.85146804835923995</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="51">
         <v>0.87944732297063899</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="51">
         <v>0.85837651122625203</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="51">
         <v>0.83385146804835897</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="51">
         <v>0.42521588946459399</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="51">
         <v>0.86183074265975801</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="52">
         <v>0.85889464594127796</v>
       </c>
     </row>
@@ -1233,7 +1218,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="47">
         <v>0.87512953367875701</v>
       </c>
       <c r="E10" s="13">
@@ -1266,7 +1251,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>0.86839378238342002</v>
       </c>
       <c r="E11" s="13">
@@ -1297,7 +1282,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="48">
         <v>0.90172711571675301</v>
       </c>
       <c r="E12" s="14">
@@ -1318,7 +1303,7 @@
       <c r="J12" s="14">
         <v>0.899309153713299</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="49">
         <v>0.85958549222797898</v>
       </c>
     </row>
@@ -1332,28 +1317,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="50">
         <v>0.86027633851467999</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="51">
         <v>0.81312607944732296</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="51">
         <v>0.82746113989637304</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="51">
         <v>0.82348877374784102</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="51">
         <v>0.84231433506044895</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="51">
         <v>0.84231433506044895</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="51">
         <v>0.83903281519861805</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="52">
         <v>0.84075993091537105</v>
       </c>
     </row>
@@ -1362,7 +1347,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="47">
         <v>0.87858376511226299</v>
       </c>
       <c r="E14" s="13">
@@ -1395,7 +1380,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="47">
         <v>0.76355785837651102</v>
       </c>
       <c r="E15" s="13">
@@ -1426,7 +1411,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="48">
         <v>0.77409326424870495</v>
       </c>
       <c r="E16" s="14">
@@ -1447,7 +1432,7 @@
       <c r="J16" s="14">
         <v>0.717962003454231</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="49">
         <v>0.48134715025906699</v>
       </c>
     </row>
@@ -1461,28 +1446,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="50">
         <v>0.790328151986183</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="51">
         <v>0.87789291882556098</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="51">
         <v>0.87806563039723695</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="51">
         <v>0.82348877374784102</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="51">
         <v>0.83229706390328095</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="51">
         <v>0.88255613126079502</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="51">
         <v>0.85198618307426599</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="52">
         <v>0.844386873920553</v>
       </c>
     </row>
@@ -1491,7 +1476,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="47">
         <v>0.79274611398963701</v>
       </c>
       <c r="E18" s="13">
@@ -1524,7 +1509,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="47">
         <v>0.85181347150259101</v>
       </c>
       <c r="E19" s="13">
@@ -1555,7 +1540,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="48">
         <v>0.88255613126079402</v>
       </c>
       <c r="E20" s="14">
@@ -1576,7 +1561,7 @@
       <c r="J20" s="14">
         <v>0.91174438687392101</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="49">
         <v>0.86943005181347099</v>
       </c>
     </row>
@@ -1924,7 +1909,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,19 +1920,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2004,7 +1989,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>0.74603223281277997</v>
       </c>
       <c r="E5" s="12">
@@ -2025,7 +2010,7 @@
       <c r="J5" s="12">
         <v>0.74773832305134302</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="46">
         <v>0.72617637492805698</v>
       </c>
     </row>
@@ -2035,7 +2020,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="47">
         <v>0.80384623543725797</v>
       </c>
       <c r="E6" s="13">
@@ -2068,7 +2053,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="47">
         <v>0.67325050869984504</v>
       </c>
       <c r="E7" s="13">
@@ -2099,7 +2084,7 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="48">
         <v>0.75290590866686102</v>
       </c>
       <c r="E8" s="14">
@@ -2120,7 +2105,7 @@
       <c r="J8" s="14">
         <v>0.78335680405460895</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="49">
         <v>0.75403626540477797</v>
       </c>
     </row>
@@ -2134,28 +2119,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="50">
         <v>0.68860649798835705</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="51">
         <v>0.65234849058959998</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="51">
         <v>0.673072494160179</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="51">
         <v>0.69824120533101697</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="51">
         <v>0.67611423400617598</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="51">
         <v>0</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="51">
         <v>0.73495582659415803</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="52">
         <v>0.70571206355126603</v>
       </c>
     </row>
@@ -2165,7 +2150,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="47">
         <v>0.67463388739529995</v>
       </c>
       <c r="E10" s="13">
@@ -2198,7 +2183,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>0.70579600729795999</v>
       </c>
       <c r="E11" s="13">
@@ -2229,7 +2214,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="48">
         <v>0.78263799104366205</v>
       </c>
       <c r="E12" s="14">
@@ -2250,7 +2235,7 @@
       <c r="J12" s="14">
         <v>0.75094050975834203</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="49">
         <v>0.80977177027299296</v>
       </c>
     </row>
@@ -2264,28 +2249,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="50">
         <v>0.62812192268144595</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="51">
         <v>0.59140808441554504</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="51">
         <v>0.57684434345777902</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="51">
         <v>0.66892772747042495</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="51">
         <v>0.63688268088823896</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="51">
         <v>0.62197803200138602</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="51">
         <v>0.66063665752697298</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="52">
         <v>0.61752380879604396</v>
       </c>
     </row>
@@ -2295,7 +2280,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="47">
         <v>0.71197343505087896</v>
       </c>
       <c r="E14" s="13">
@@ -2328,7 +2313,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="47">
         <v>0.73496497798092597</v>
       </c>
       <c r="E15" s="13">
@@ -2359,7 +2344,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="48">
         <v>0.73629411740196005</v>
       </c>
       <c r="E16" s="14">
@@ -2380,7 +2365,7 @@
       <c r="J16" s="14">
         <v>0.58787582207771505</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="49">
         <v>0.74570260683253797</v>
       </c>
     </row>
@@ -2394,28 +2379,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="50">
         <v>0.698982389556291</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="51">
         <v>0.66243714599234305</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="51">
         <v>0.63947696139476995</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="51">
         <v>0.59226312954794402</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="51">
         <v>0.60896328169501202</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="51">
         <v>0.733526449726569</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="51">
         <v>0.70737931825992895</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="52">
         <v>0.65963046374517897</v>
       </c>
     </row>
@@ -2425,7 +2410,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="47">
         <v>0.71206481783033404</v>
       </c>
       <c r="E18" s="13">
@@ -2458,7 +2443,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="47">
         <v>0.63769966283367596</v>
       </c>
       <c r="E19" s="13">
@@ -2489,7 +2474,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="48">
         <v>0.70042786917921196</v>
       </c>
       <c r="E20" s="14">
@@ -2510,7 +2495,7 @@
       <c r="J20" s="14">
         <v>0.79622610861443499</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="49">
         <v>0.78882071898509598</v>
       </c>
     </row>
@@ -2538,19 +2523,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2607,7 +2592,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>0.872908920387652</v>
       </c>
       <c r="E5" s="12">
@@ -2628,7 +2613,7 @@
       <c r="J5" s="12">
         <v>0.87002394492666901</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="46">
         <v>0.86220049528832898</v>
       </c>
     </row>
@@ -2638,7 +2623,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="47">
         <v>0.90052622536699001</v>
       </c>
       <c r="E6" s="13">
@@ -2671,7 +2656,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="47">
         <v>0.82131274465746595</v>
       </c>
       <c r="E7" s="13">
@@ -2702,7 +2687,7 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="48">
         <v>0.87633745564780097</v>
       </c>
       <c r="E8" s="14">
@@ -2723,7 +2708,7 @@
       <c r="J8" s="14">
         <v>0.89006329113924099</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="49">
         <v>0.87182678098132704</v>
       </c>
     </row>
@@ -2737,28 +2722,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="50">
         <v>0.83099731794224996</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="51">
         <v>0.81991725594906295</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="51">
         <v>0.83626534786297302</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="51">
         <v>0.84529246016323401</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="51">
         <v>0.82139313852182305</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="51">
         <v>0.46635944700460802</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="51">
         <v>0.85695386405476703</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="52">
         <v>0.85280974043350299</v>
       </c>
     </row>
@@ -2768,7 +2753,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="47">
         <v>0.83391009795843596</v>
       </c>
       <c r="E10" s="13">
@@ -2801,7 +2786,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>0.85183479195455203</v>
       </c>
       <c r="E11" s="13">
@@ -2832,7 +2817,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="48">
         <v>0.89098098286575</v>
       </c>
       <c r="E12" s="14">
@@ -2853,7 +2838,7 @@
       <c r="J12" s="14">
         <v>0.87341126399253699</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="49">
         <v>0.90483234714004002</v>
       </c>
     </row>
@@ -2867,28 +2852,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="50">
         <v>0.80947224199927004</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="51">
         <v>0.77890449319020705</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="51">
         <v>0.77553360525496795</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="51">
         <v>0.82398441722212201</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="51">
         <v>0.80923653715064803</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="51">
         <v>0.80326197757390405</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="51">
         <v>0.82593795093795097</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="52">
         <v>0.79735562901030499</v>
       </c>
     </row>
@@ -2898,7 +2883,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="47">
         <v>0.84978065003066205</v>
       </c>
       <c r="E14" s="13">
@@ -2931,7 +2916,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="47">
         <v>0.85482970859180996</v>
       </c>
       <c r="E15" s="13">
@@ -2962,7 +2947,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="48">
         <v>0.850356413356121</v>
       </c>
       <c r="E16" s="14">
@@ -2983,7 +2968,7 @@
       <c r="J16" s="14">
         <v>0.79188703465982002</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="49">
         <v>0.85629426169832601</v>
       </c>
     </row>
@@ -2997,28 +2982,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="50">
         <v>0.84067874340747495</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="51">
         <v>0.81824239854166603</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="51">
         <v>0.81973848069738497</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="51">
         <v>0.78147644927536197</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="51">
         <v>0.78152280329607604</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="51">
         <v>0.86676322486328405</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="51">
         <v>0.85134788189987198</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="52">
         <v>0.81991890837324799</v>
       </c>
     </row>
@@ -3028,7 +3013,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="47">
         <v>0.85104193465397504</v>
       </c>
       <c r="E18" s="13">
@@ -3061,7 +3046,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="47">
         <v>0.81384853536556301</v>
       </c>
       <c r="E19" s="13">
@@ -3092,7 +3077,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="48">
         <v>0.84894723111283599</v>
       </c>
       <c r="E20" s="14">
@@ -3113,7 +3098,7 @@
       <c r="J20" s="14">
         <v>0.898113054307218</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="49">
         <v>0.89397823584807001</v>
       </c>
     </row>
@@ -3148,19 +3133,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3900,7 +3885,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,19 +3903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3978,7 +3963,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>0.94300518134714995</v>
       </c>
       <c r="E5" s="12">
@@ -3999,7 +3984,7 @@
       <c r="J5" s="12">
         <v>0.94818652849740903</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="46">
         <v>0.93609671848013798</v>
       </c>
     </row>
@@ -4008,7 +3993,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="47">
         <v>0.95336787564766801</v>
       </c>
       <c r="E6" s="13">
@@ -4041,7 +4026,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="47">
         <v>0.90155440414507804</v>
       </c>
       <c r="E7" s="13">
@@ -4072,7 +4057,7 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="48">
         <v>0.94645941278065604</v>
       </c>
       <c r="E8" s="14">
@@ -4093,7 +4078,7 @@
       <c r="J8" s="14">
         <v>0.94818652849740903</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="49">
         <v>0.93609671848013798</v>
       </c>
     </row>
@@ -4107,28 +4092,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="50">
         <v>0.90846286701209</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="51">
         <v>0.90846286701209</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="51">
         <v>0.92573402417962003</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="51">
         <v>0.92400690846286704</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="51">
         <v>0.93609671848013798</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="51">
         <v>0.87392055267702895</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="51">
         <v>0.94645941278065604</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="52">
         <v>0.93436960276338499</v>
       </c>
     </row>
@@ -4137,7 +4122,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="47">
         <v>0.91882556131260795</v>
       </c>
       <c r="E10" s="13">
@@ -4170,7 +4155,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>0.930915371329879</v>
       </c>
       <c r="E11" s="13">
@@ -4201,7 +4186,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="48">
         <v>0.95336787564766801</v>
       </c>
       <c r="E12" s="14">
@@ -4222,7 +4207,7 @@
       <c r="J12" s="14">
         <v>0.94818652849740903</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="49">
         <v>0.95854922279792698</v>
       </c>
     </row>
@@ -4236,28 +4221,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="50">
         <v>0.90500863557858402</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="51">
         <v>0.87564766839378205</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="51">
         <v>0.87737478411053504</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="51">
         <v>0.90673575129533701</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="51">
         <v>0.89982728842832505</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="51">
         <v>0.89810017271157205</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="51">
         <v>0.91364421416234898</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="52">
         <v>0.89119170984455998</v>
       </c>
     </row>
@@ -4266,7 +4251,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="47">
         <v>0.92400690846286704</v>
       </c>
       <c r="E14" s="13">
@@ -4299,7 +4284,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="47">
         <v>0.94645941278065604</v>
       </c>
       <c r="E15" s="13">
@@ -4330,7 +4315,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="48">
         <v>0.94645941278065604</v>
       </c>
       <c r="E16" s="14">
@@ -4351,7 +4336,7 @@
       <c r="J16" s="14">
         <v>0.91537132987910197</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="49">
         <v>0.94818652849740903</v>
       </c>
     </row>
@@ -4365,28 +4350,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="50">
         <v>0.91709844559585496</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="51">
         <v>0.90155440414507804</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="51">
         <v>0.92055267702936106</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="51">
         <v>0.87910189982728904</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="51">
         <v>0.87219343696027596</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="51">
         <v>0.94127806563039695</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="51">
         <v>0.93955094991364396</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="52">
         <v>0.90500863557858402</v>
       </c>
     </row>
@@ -4395,7 +4380,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="47">
         <v>0.92573402417962003</v>
       </c>
       <c r="E18" s="13">
@@ -4428,7 +4413,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="47">
         <v>0.90673575129533701</v>
       </c>
       <c r="E19" s="13">
@@ -4459,7 +4444,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="48">
         <v>0.92918825561312601</v>
       </c>
       <c r="E20" s="14">
@@ -4480,7 +4465,7 @@
       <c r="J20" s="14">
         <v>0.955094991364421</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="49">
         <v>0.95164075993091501</v>
       </c>
     </row>
@@ -4828,7 +4813,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,19 +4831,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5598,7 +5583,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5616,19 +5601,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6368,7 +6353,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,19 +6371,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7138,7 +7123,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7156,19 +7141,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7908,7 +7893,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:P20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7927,29 +7912,29 @@
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7959,29 +7944,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="62" t="s">
+      <c r="N3" s="58"/>
+      <c r="O3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8043,43 +8028,43 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="44">
         <v>7.8125E-3</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="35">
         <v>128</v>
       </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38">
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35">
         <v>1024</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="35">
         <v>0.6</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <v>32</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="35">
         <v>4</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="35">
         <v>0.6</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <v>128</v>
       </c>
       <c r="M5" s="33">
         <v>7.8125E-3</v>
       </c>
-      <c r="N5" s="36">
-        <v>1</v>
-      </c>
-      <c r="O5" s="38">
+      <c r="N5" s="35">
+        <v>1</v>
+      </c>
+      <c r="O5" s="35">
         <v>256</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="36">
         <v>128</v>
       </c>
     </row>
@@ -8088,31 +8073,31 @@
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>512</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="29">
         <v>16</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>512</v>
       </c>
       <c r="H6" s="29">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="30">
-        <v>2</v>
-      </c>
-      <c r="J6" s="31">
+      <c r="I6" s="29">
+        <v>2</v>
+      </c>
+      <c r="J6" s="29">
         <v>512</v>
       </c>
       <c r="K6" s="19">
         <v>2.4</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="29">
         <v>64</v>
       </c>
       <c r="M6" s="32">
@@ -8124,7 +8109,7 @@
       <c r="O6" s="19">
         <v>2</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="40">
         <v>16</v>
       </c>
     </row>
@@ -8136,10 +8121,10 @@
       <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>32</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="29">
         <v>32</v>
       </c>
       <c r="F7" s="19">
@@ -8151,10 +8136,10 @@
       <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>256</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="29">
         <v>128</v>
       </c>
       <c r="K7" s="19">
@@ -8163,16 +8148,16 @@
       <c r="L7" s="29">
         <v>256</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="29">
         <v>2</v>
       </c>
       <c r="N7" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="29">
         <v>16</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="40">
         <v>8</v>
       </c>
     </row>
@@ -8182,13 +8167,13 @@
       <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>512</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="29">
         <v>8</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="13">
         <v>0.25</v>
       </c>
       <c r="G8" s="29">
@@ -8197,10 +8182,10 @@
       <c r="H8" s="29">
         <v>1</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="29">
         <v>512</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="29">
         <v>32</v>
       </c>
       <c r="K8" s="29">
@@ -8212,13 +8197,13 @@
       <c r="M8" s="32">
         <v>3.125E-2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="19">
         <v>0.5</v>
       </c>
       <c r="O8" s="19">
         <v>256</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="40">
         <v>32</v>
       </c>
     </row>
@@ -8232,16 +8217,16 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <v>512</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="29">
         <v>64</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="13">
         <v>0.25</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <v>4</v>
       </c>
       <c r="H9" s="29">
@@ -8250,25 +8235,25 @@
       <c r="I9" s="29">
         <v>2</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="29">
         <v>4</v>
       </c>
       <c r="K9" s="19">
         <v>0.2</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="31">
         <v>7.8125E-3</v>
       </c>
       <c r="M9" s="32">
         <v>6.25E-2</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="19">
         <v>0.5</v>
       </c>
       <c r="O9" s="32">
         <v>3.125E-2</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="40">
         <v>4</v>
       </c>
     </row>
@@ -8277,13 +8262,13 @@
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40">
-        <v>1</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
         <v>4</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="13">
         <v>1.5625E-2</v>
       </c>
       <c r="G10" s="29">
@@ -8292,10 +8277,10 @@
       <c r="H10" s="19">
         <v>0.6</v>
       </c>
-      <c r="I10" s="31">
-        <v>2</v>
-      </c>
-      <c r="J10" s="32">
+      <c r="I10" s="29">
+        <v>2</v>
+      </c>
+      <c r="J10" s="29">
         <v>4</v>
       </c>
       <c r="K10" s="19">
@@ -8307,13 +8292,13 @@
       <c r="M10" s="32">
         <v>3.125E-2</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="13">
         <v>1.5625E-2</v>
       </c>
       <c r="O10" s="29">
         <v>128</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="40">
         <v>128</v>
       </c>
     </row>
@@ -8325,10 +8310,10 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <v>3.125E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="29">
         <v>2</v>
       </c>
       <c r="F11" s="31">
@@ -8343,7 +8328,7 @@
       <c r="I11" s="29">
         <v>2</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="K11" s="19">
@@ -8358,10 +8343,10 @@
       <c r="N11" s="13">
         <v>-6.25E-2</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="29">
         <v>4</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="40">
         <v>256</v>
       </c>
     </row>
@@ -8371,25 +8356,25 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="29">
         <v>8</v>
       </c>
       <c r="F12" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="29">
         <v>4</v>
       </c>
       <c r="H12" s="19">
         <v>2.4</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="29">
         <v>32</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="29">
         <v>16</v>
       </c>
       <c r="K12" s="29">
@@ -8404,10 +8389,10 @@
       <c r="N12" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="29">
         <v>4</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="40">
         <v>4</v>
       </c>
     </row>
@@ -8421,7 +8406,7 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="37">
         <v>1.953125E-3</v>
       </c>
       <c r="E13" s="29">
@@ -8430,7 +8415,7 @@
       <c r="F13" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>32</v>
       </c>
       <c r="H13" s="19">
@@ -8439,7 +8424,7 @@
       <c r="I13" s="29">
         <v>256</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="29">
         <v>8</v>
       </c>
       <c r="K13" s="19">
@@ -8448,16 +8433,16 @@
       <c r="L13" s="29">
         <v>64</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="29">
         <v>1</v>
       </c>
       <c r="N13" s="13">
         <v>-6.25E-2</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="29">
         <v>32</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="40">
         <v>64</v>
       </c>
     </row>
@@ -8466,43 +8451,43 @@
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>32</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="29">
         <v>8</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="29">
         <v>128</v>
       </c>
       <c r="H14" s="29">
         <v>0.6</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="29">
         <v>64</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="29">
         <v>4</v>
       </c>
       <c r="K14" s="19">
         <v>3</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="29">
         <v>16</v>
       </c>
       <c r="M14" s="31">
         <v>3.125E-2</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="13">
         <v>3.90625E-3</v>
       </c>
       <c r="O14" s="29">
         <v>2</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="40">
         <v>4</v>
       </c>
     </row>
@@ -8514,7 +8499,7 @@
       <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="38">
         <v>2</v>
       </c>
       <c r="E15" s="29">
@@ -8538,7 +8523,7 @@
       <c r="K15" s="19">
         <v>0.2</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="29">
         <v>32</v>
       </c>
       <c r="M15" s="29">
@@ -8547,10 +8532,10 @@
       <c r="N15" s="30">
         <v>1.5625E-2</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="29">
         <v>64</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="40">
         <v>1024</v>
       </c>
     </row>
@@ -8560,7 +8545,7 @@
       <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="37">
         <v>6.25E-2</v>
       </c>
       <c r="E16" s="29">
@@ -8578,7 +8563,7 @@
       <c r="I16" s="29">
         <v>256</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="13">
         <v>0.125</v>
       </c>
       <c r="K16" s="29">
@@ -8587,7 +8572,7 @@
       <c r="L16" s="29">
         <v>128</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="29">
         <v>4</v>
       </c>
       <c r="N16" s="19">
@@ -8596,7 +8581,7 @@
       <c r="O16" s="30">
         <v>0.125</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="40">
         <v>1</v>
       </c>
     </row>
@@ -8610,7 +8595,7 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="38">
         <v>1024</v>
       </c>
       <c r="E17" s="29">
@@ -8643,10 +8628,10 @@
       <c r="N17" s="19">
         <v>0.125</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="40">
         <v>4</v>
       </c>
     </row>
@@ -8655,13 +8640,13 @@
       <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="37">
         <v>3.125E-2</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="29">
         <v>4</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="13">
         <v>7.8125E-3</v>
       </c>
       <c r="G18" s="29">
@@ -8673,7 +8658,7 @@
       <c r="I18" s="29">
         <v>8</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="29">
         <v>4</v>
       </c>
       <c r="K18" s="29">
@@ -8691,7 +8676,7 @@
       <c r="O18" s="29">
         <v>256</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="40">
         <v>8</v>
       </c>
     </row>
@@ -8703,10 +8688,10 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="37">
         <v>3.90625E-3</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="29">
         <v>8</v>
       </c>
       <c r="F19" s="29">
@@ -8715,13 +8700,13 @@
       <c r="G19" s="29">
         <v>1024</v>
       </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
         <v>4</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="29">
         <v>8</v>
       </c>
       <c r="K19" s="19">
@@ -8730,16 +8715,16 @@
       <c r="L19" s="29">
         <v>256</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="13">
         <v>0.125</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="29">
         <v>-1</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="13">
         <v>1.953125E-3</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="40">
         <v>4</v>
       </c>
     </row>
@@ -8749,43 +8734,43 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="39">
         <v>8</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="43">
         <v>4</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="14">
         <v>3.90625E-3</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="43">
         <v>16</v>
       </c>
-      <c r="H20" s="48">
-        <v>2</v>
-      </c>
-      <c r="I20" s="35">
+      <c r="H20" s="43">
+        <v>2</v>
+      </c>
+      <c r="I20" s="43">
         <v>16</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="43">
         <v>8</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="42">
         <v>0.4</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="43">
         <v>64</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <v>1.5625E-2</v>
       </c>
       <c r="N20" s="14">
         <v>9.765625E-4</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="41">
         <v>0.25</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="53">
         <v>2</v>
       </c>
     </row>
@@ -9047,7 +9032,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:S20"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9055,14 +9040,12 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -9073,61 +9056,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="62" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="62" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="59"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9198,7 +9181,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="27">
@@ -9222,7 +9205,7 @@
       <c r="K5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="54">
         <v>0.5</v>
       </c>
       <c r="M5" s="27">
@@ -9258,7 +9241,7 @@
       <c r="E6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>7.8125E-3</v>
       </c>
       <c r="G6" s="29">
@@ -9270,19 +9253,19 @@
       <c r="I6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="29">
         <v>1</v>
       </c>
       <c r="K6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="13">
         <v>1.953125E-3</v>
       </c>
       <c r="M6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="31">
         <v>-1.5625E-2</v>
       </c>
       <c r="O6" s="29">
@@ -9294,7 +9277,7 @@
       <c r="Q6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="31">
         <v>0.125</v>
       </c>
       <c r="S6" s="29">
@@ -9309,7 +9292,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>16</v>
       </c>
       <c r="E7" s="29">
@@ -9321,25 +9304,25 @@
       <c r="G7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
         <v>8</v>
       </c>
       <c r="I7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="K7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="31">
         <v>7.8125E-3</v>
       </c>
       <c r="M7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="13">
         <v>9.765625E-4</v>
       </c>
       <c r="O7" s="29">
@@ -9364,7 +9347,7 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>4</v>
       </c>
       <c r="E8" s="29">
@@ -9382,13 +9365,13 @@
       <c r="I8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="31">
         <v>1.5625E-2</v>
       </c>
       <c r="K8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="M8" s="29">
@@ -9406,7 +9389,7 @@
       <c r="Q8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="31">
         <v>7.8125E-3</v>
       </c>
       <c r="S8" s="29">
@@ -9426,31 +9409,31 @@
       <c r="D9" s="30">
         <v>0.99</v>
       </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
         <v>0.99</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
       <c r="H9" s="30">
         <v>0.5</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="29">
         <v>1</v>
       </c>
       <c r="J9" s="30">
         <v>0.1</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="29">
         <v>1</v>
       </c>
       <c r="L9" s="19">
         <v>0.3</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="29">
         <v>1</v>
       </c>
       <c r="N9" s="19">
@@ -9462,13 +9445,13 @@
       <c r="P9" s="30">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="29">
         <v>1</v>
       </c>
       <c r="R9" s="19">
         <v>0.4</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="29">
         <v>1</v>
       </c>
     </row>
@@ -9477,37 +9460,37 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="19">
         <v>0.6</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="19">
         <v>0.1</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="30">
         <v>0.999</v>
       </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="30">
         <v>0.2</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
       <c r="L10" s="30">
         <v>0.6</v>
       </c>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="30">
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="19">
         <v>0.3</v>
       </c>
       <c r="O10" s="29">
@@ -9516,13 +9499,13 @@
       <c r="P10" s="30">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="13">
-        <v>1</v>
-      </c>
-      <c r="R10" s="30">
+      <c r="Q10" s="29">
+        <v>1</v>
+      </c>
+      <c r="R10" s="29">
         <v>0.999</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="29">
         <v>1</v>
       </c>
     </row>
@@ -9534,34 +9517,34 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="31">
         <v>1E-3</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
       <c r="F11" s="30">
         <v>0.01</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" s="30">
         <v>0.2</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="29">
         <v>1</v>
       </c>
       <c r="J11" s="30">
         <v>0.1</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="29">
         <v>1</v>
       </c>
       <c r="L11" s="30">
         <v>1E-4</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="29">
         <v>1</v>
       </c>
       <c r="N11" s="19">
@@ -9573,13 +9556,13 @@
       <c r="P11" s="30">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="13">
-        <v>1</v>
-      </c>
-      <c r="R11" s="19">
+      <c r="Q11" s="29">
+        <v>1</v>
+      </c>
+      <c r="R11" s="29">
         <v>0.999</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="29">
         <v>1</v>
       </c>
     </row>
@@ -9592,31 +9575,31 @@
       <c r="D12" s="30">
         <v>0.5</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="29">
         <v>1</v>
       </c>
       <c r="F12" s="30">
         <v>0.8</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="30">
         <v>0.9</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
         <v>0.8</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="29">
         <v>1</v>
       </c>
       <c r="L12" s="30">
         <v>0.8</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="29">
         <v>1</v>
       </c>
       <c r="N12" s="19">
@@ -9628,13 +9611,13 @@
       <c r="P12" s="30">
         <v>0.4</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="29">
         <v>1</v>
       </c>
       <c r="R12" s="19">
         <v>0.4</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="29">
         <v>1</v>
       </c>
     </row>
@@ -9648,13 +9631,13 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>32</v>
       </c>
       <c r="E13" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>0.5</v>
       </c>
       <c r="G13" s="29">
@@ -9663,37 +9646,37 @@
       <c r="H13" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="K13" s="29">
         <v>8.0009765625</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="13">
         <v>0.125</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="30">
         <v>0.2509765625</v>
       </c>
       <c r="N13" s="31">
         <v>7.8125E-3</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="29">
         <v>256.0009765625</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="19">
         <v>2.0009765625</v>
       </c>
       <c r="R13" s="31">
         <v>7.8125E-3</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="29">
         <v>1.0009765625</v>
       </c>
     </row>
@@ -9702,52 +9685,52 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <v>16</v>
       </c>
       <c r="E14" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>0.25</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <v>512.0009765625</v>
       </c>
       <c r="H14" s="31">
         <v>1.953125E-3</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="31">
         <v>6.34765625E-2</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="13">
         <v>0.125</v>
       </c>
       <c r="K14" s="29">
         <v>1.0009765625</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="29">
         <v>1</v>
       </c>
       <c r="M14" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="13">
         <v>0.125</v>
       </c>
       <c r="O14" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="30">
         <v>0.25</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <v>0.2509765625</v>
       </c>
       <c r="R14" s="31">
         <v>3.90625E-3</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="29">
         <v>4.0009765625</v>
       </c>
     </row>
@@ -9762,10 +9745,10 @@
       <c r="D15" s="29">
         <v>128</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="29">
         <v>2.0009765625</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="31">
         <v>7.8125E-3</v>
       </c>
       <c r="G15" s="29">
@@ -9777,16 +9760,16 @@
       <c r="I15" s="19">
         <v>6.34765625E-2</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="31">
         <v>9.765625E-4</v>
       </c>
       <c r="K15" s="13">
         <v>3.22265625E-2</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="31">
         <v>3.22265625E-2</v>
       </c>
       <c r="N15" s="29">
@@ -9814,7 +9797,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="31">
         <v>3.90625E-3</v>
       </c>
       <c r="E16" s="29">
@@ -9823,7 +9806,7 @@
       <c r="F16" s="29">
         <v>32</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="29">
         <v>512.0009765625</v>
       </c>
       <c r="H16" s="13">
@@ -9838,28 +9821,28 @@
       <c r="K16" s="29">
         <v>1.0009765625</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="29">
         <v>1024</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="31">
         <v>1.66015625E-2</v>
       </c>
       <c r="N16" s="29">
         <v>1</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="29">
         <v>2.0009765625</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="30">
         <v>0.5</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="30">
         <v>0.2509765625</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="31">
         <v>0.125</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="29">
         <v>512.0009765625</v>
       </c>
     </row>
@@ -9879,22 +9862,22 @@
       <c r="E17" s="29">
         <v>8.0009765625</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="31">
         <v>0.25</v>
       </c>
       <c r="G17" s="29">
         <v>1.0009765625</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>0.5</v>
       </c>
       <c r="I17" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="29">
         <v>32</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="29">
         <v>32.0009765625</v>
       </c>
       <c r="L17" s="13">
@@ -9903,19 +9886,19 @@
       <c r="M17" s="19">
         <v>0.1259765625</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="30">
         <v>-0.25</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="30">
         <v>0.2509765625</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="S17" s="29">
@@ -9933,43 +9916,43 @@
       <c r="E18" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>0.5</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="29">
         <v>1.0009765625</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="29">
         <v>4</v>
       </c>
       <c r="I18" s="29">
         <v>32.0009765625</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="31">
         <v>0.125</v>
       </c>
       <c r="K18" s="29">
         <v>4.0009765625</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="30">
         <v>0.25</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="29">
         <v>16.0009765625</v>
       </c>
       <c r="N18" s="31">
         <v>3.90625E-3</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="29">
         <v>16.0009765625</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="30">
         <v>0.5</v>
       </c>
       <c r="Q18" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="R18" s="31">
+      <c r="R18" s="30">
         <v>0.25</v>
       </c>
       <c r="S18" s="29">
@@ -9984,7 +9967,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>2</v>
       </c>
       <c r="E19" s="29">
@@ -9999,28 +9982,28 @@
       <c r="H19" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="29">
         <v>2.0009765625</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <v>0.5</v>
       </c>
       <c r="K19" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="30">
         <v>0.2509765625</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="29">
         <v>-32</v>
       </c>
       <c r="O19" s="29">
         <v>2.0009765625</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="13">
         <v>9.765625E-4</v>
       </c>
       <c r="Q19" s="29">
@@ -10029,7 +10012,7 @@
       <c r="R19" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="29">
         <v>4.0009765625</v>
       </c>
     </row>
@@ -10039,40 +10022,40 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>0.5</v>
       </c>
       <c r="E20" s="29">
         <v>16.0009765625</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>0.5</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="29">
         <v>4.0009765625</v>
       </c>
       <c r="J20" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="30">
         <v>0.5009765625</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="30">
         <v>0.25</v>
       </c>
       <c r="M20" s="29">
         <v>2.0009765625</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="31">
         <v>-3.125E-2</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="31">
         <v>-6.8359375E-3</v>
       </c>
       <c r="P20" s="13">
@@ -10081,10 +10064,10 @@
       <c r="Q20" s="13">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="30">
         <v>0.25</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="29">
         <v>8.0009765625</v>
       </c>
     </row>

--- a/results_analysis/spark_cervicalCancer_02_hold2.xlsx
+++ b/results_analysis/spark_cervicalCancer_02_hold2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122117D1-2A1B-4CF8-8AB5-3177F5A115BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3028CA-5A23-4295-89A7-873400780431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
-    <sheet name="acc_median" sheetId="7" r:id="rId2"/>
-    <sheet name="acc_best" sheetId="11" r:id="rId3"/>
+    <sheet name="acc_best" sheetId="11" r:id="rId1"/>
+    <sheet name="acc_mean" sheetId="1" r:id="rId2"/>
+    <sheet name="acc_median" sheetId="7" r:id="rId3"/>
     <sheet name="nprot_best" sheetId="3" r:id="rId4"/>
     <sheet name="nprot_mean" sheetId="8" r:id="rId5"/>
     <sheet name="K_best" sheetId="9" r:id="rId6"/>
@@ -149,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -516,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,6 +702,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,11 +1073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,28 +1156,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="45">
-        <v>0.85267702936096701</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.83644214162348896</v>
+        <v>0.94300518134714995</v>
+      </c>
+      <c r="E5" s="61">
+        <v>0.94473229706390305</v>
       </c>
       <c r="F5" s="12">
-        <v>0.85630397236614897</v>
+        <v>0.93436960276338499</v>
       </c>
       <c r="G5" s="12">
-        <v>0.836096718480138</v>
+        <v>0.92573402417962003</v>
       </c>
       <c r="H5" s="12">
-        <v>0.83367875647668399</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.85405872193437005</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.87789291882556098</v>
+        <v>0.92227979274611405</v>
+      </c>
+      <c r="I5" s="61">
+        <v>0.94127806563039695</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0.94818652849740903</v>
       </c>
       <c r="K5" s="46">
-        <v>0.83402417962003506</v>
+        <v>0.93609671848013798</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1089,29 +1185,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="47">
-        <v>0.89119170984455998</v>
+      <c r="D6" s="62">
+        <v>0.95336787564766801</v>
       </c>
       <c r="E6" s="13">
-        <v>0.86943005181347099</v>
+        <v>0.92400690846286704</v>
       </c>
       <c r="F6" s="13">
-        <v>0.89378238341968896</v>
+        <v>0.93436960276338499</v>
       </c>
       <c r="G6" s="13">
-        <v>0.88618307426597598</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.90449050086355798</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.92245250431778902</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.86960276338514697</v>
+        <v>0.94300518134714995</v>
+      </c>
+      <c r="H6" s="63">
+        <v>0.94991364421416202</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0.94645941278065604</v>
+      </c>
+      <c r="J6" s="63">
+        <v>0.94645941278065604</v>
       </c>
       <c r="K6" s="15">
-        <v>0.86252158894646003</v>
+        <v>0.93609671848013798</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1123,28 +1219,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="47">
-        <v>0.85906735751295304</v>
+        <v>0.90155440414507804</v>
       </c>
       <c r="E7" s="13">
-        <v>0.84594127806563102</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.87046632124352297</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.82970639032815197</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.84473229706390296</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.89775474956822099</v>
+        <v>0.89464594127806596</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0.930915371329879</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0.91018998272884299</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0.91018998272884299</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0.94818652849740903</v>
       </c>
       <c r="J7" s="13">
-        <v>0.87702936096718498</v>
+        <v>0.91709844559585496</v>
       </c>
       <c r="K7" s="15">
-        <v>0.81623488773747799</v>
+        <v>0.89982728842832505</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,29 +1249,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="48">
-        <v>0.90587219343696002</v>
+      <c r="D8" s="65">
+        <v>0.94645941278065604</v>
       </c>
       <c r="E8" s="14">
-        <v>0.89240069084628704</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.89430051813471501</v>
+        <v>0.92227979274611405</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0.94645941278065604</v>
       </c>
       <c r="G8" s="14">
-        <v>0.85561312607944695</v>
+        <v>0.93609671848013798</v>
       </c>
       <c r="H8" s="14">
-        <v>0.88013816925734001</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0.92867012089809997</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.90189982728842799</v>
+        <v>0.94473229706390305</v>
+      </c>
+      <c r="I8" s="64">
+        <v>0.94818652849740903</v>
+      </c>
+      <c r="J8" s="64">
+        <v>0.94818652849740903</v>
       </c>
       <c r="K8" s="49">
-        <v>0.89050086355785796</v>
+        <v>0.93609671848013798</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1189,28 +1285,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="50">
-        <v>0.86407599309153704</v>
+        <v>0.90846286701209</v>
       </c>
       <c r="E9" s="51">
-        <v>0.85146804835923995</v>
+        <v>0.90846286701209</v>
       </c>
       <c r="F9" s="51">
-        <v>0.87944732297063899</v>
+        <v>0.92573402417962003</v>
       </c>
       <c r="G9" s="51">
-        <v>0.85837651122625203</v>
-      </c>
-      <c r="H9" s="51">
-        <v>0.83385146804835897</v>
+        <v>0.92400690846286704</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0.93609671848013798</v>
       </c>
       <c r="I9" s="51">
-        <v>0.42521588946459399</v>
-      </c>
-      <c r="J9" s="51">
-        <v>0.86183074265975801</v>
-      </c>
-      <c r="K9" s="52">
-        <v>0.85889464594127796</v>
+        <v>0.87392055267702895</v>
+      </c>
+      <c r="J9" s="66">
+        <v>0.94645941278065604</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0.93436960276338499</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1219,28 +1315,28 @@
         <v>12</v>
       </c>
       <c r="D10" s="47">
-        <v>0.87512953367875701</v>
+        <v>0.91882556131260795</v>
       </c>
       <c r="E10" s="13">
-        <v>0.86822107081174504</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.87806563039723695</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.86234887737478405</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.87495682210708103</v>
+        <v>0.94300518134714995</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0.94473229706390305</v>
+      </c>
+      <c r="G10" s="63">
+        <v>0.94991364421416202</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0.94991364421416202</v>
       </c>
       <c r="I10" s="13">
-        <v>0.5</v>
+        <v>0.87392055267702895</v>
       </c>
       <c r="J10" s="13">
-        <v>0.86113989637305699</v>
+        <v>0.93782383419689097</v>
       </c>
       <c r="K10" s="15">
-        <v>0.86217616580310896</v>
+        <v>0.94127806563039695</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1251,29 +1347,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="47">
-        <v>0.86839378238342002</v>
+      <c r="D11" s="62">
+        <v>0.930915371329879</v>
       </c>
       <c r="E11" s="13">
-        <v>0.80328151986183105</v>
+        <v>0.88773747841105399</v>
       </c>
       <c r="F11" s="13">
-        <v>0.85164075993091604</v>
+        <v>0.91364421416234898</v>
       </c>
       <c r="G11" s="13">
-        <v>0.82037996545768599</v>
+        <v>0.88255613126079502</v>
       </c>
       <c r="H11" s="13">
-        <v>0.81191709844559601</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.83816925734024195</v>
+        <v>0.863557858376511</v>
+      </c>
+      <c r="I11" s="63">
+        <v>0.95336787564766801</v>
       </c>
       <c r="J11" s="13">
-        <v>0.86459412780656297</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0.85630397236614897</v>
+        <v>0.91537132987910197</v>
+      </c>
+      <c r="K11" s="68">
+        <v>0.930915371329879</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1282,29 +1378,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="48">
-        <v>0.90172711571675301</v>
+      <c r="D12" s="65">
+        <v>0.95336787564766801</v>
       </c>
       <c r="E12" s="14">
-        <v>0.86390328151986195</v>
+        <v>0.90328151986183103</v>
       </c>
       <c r="F12" s="14">
-        <v>0.88531951640759898</v>
+        <v>0.92918825561312601</v>
       </c>
       <c r="G12" s="14">
-        <v>0.86683937823834201</v>
+        <v>0.932642487046632</v>
       </c>
       <c r="H12" s="14">
-        <v>0.84283246977547499</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0.78480138169257296</v>
+        <v>0.93436960276338499</v>
+      </c>
+      <c r="I12" s="64">
+        <v>0.955094991364421</v>
       </c>
       <c r="J12" s="14">
-        <v>0.899309153713299</v>
-      </c>
-      <c r="K12" s="49">
-        <v>0.85958549222797898</v>
+        <v>0.94818652849740903</v>
+      </c>
+      <c r="K12" s="69">
+        <v>0.95854922279792698</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1317,29 +1413,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="50">
-        <v>0.86027633851467999</v>
+      <c r="D13" s="70">
+        <v>0.90500863557858402</v>
       </c>
       <c r="E13" s="51">
-        <v>0.81312607944732296</v>
+        <v>0.87564766839378205</v>
       </c>
       <c r="F13" s="51">
-        <v>0.82746113989637304</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0.82348877374784102</v>
+        <v>0.87737478411053504</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0.90673575129533701</v>
       </c>
       <c r="H13" s="51">
-        <v>0.84231433506044895</v>
+        <v>0.89982728842832505</v>
       </c>
       <c r="I13" s="51">
-        <v>0.84231433506044895</v>
-      </c>
-      <c r="J13" s="51">
-        <v>0.83903281519861805</v>
+        <v>0.89810017271157205</v>
+      </c>
+      <c r="J13" s="66">
+        <v>0.91364421416234898</v>
       </c>
       <c r="K13" s="52">
-        <v>0.84075993091537105</v>
+        <v>0.89119170984455998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1348,28 +1444,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="47">
-        <v>0.87858376511226299</v>
+        <v>0.92400690846286704</v>
       </c>
       <c r="E14" s="13">
-        <v>0.86701208981001698</v>
+        <v>0.91018998272884299</v>
       </c>
       <c r="F14" s="13">
-        <v>0.87150259067357505</v>
+        <v>0.91191709844559599</v>
       </c>
       <c r="G14" s="13">
-        <v>0.88480138169257305</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.88549222797927496</v>
+        <v>0.92918825561312601</v>
+      </c>
+      <c r="H14" s="63">
+        <v>0.93955094991364396</v>
       </c>
       <c r="I14" s="13">
-        <v>0.841968911917098</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.85993091537133004</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0.86804835924006896</v>
+        <v>0.92400690846286704</v>
+      </c>
+      <c r="J14" s="63">
+        <v>0.94127806563039695</v>
+      </c>
+      <c r="K14" s="68">
+        <v>0.930915371329879</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1380,29 +1476,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="47">
-        <v>0.76355785837651102</v>
+      <c r="D15" s="62">
+        <v>0.94645941278065604</v>
       </c>
       <c r="E15" s="13">
-        <v>0.34507772020725402</v>
+        <v>0.94473229706390305</v>
       </c>
       <c r="F15" s="13">
-        <v>0.28238341968911901</v>
+        <v>0.88255613126079502</v>
       </c>
       <c r="G15" s="13">
-        <v>0.51295336787564805</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.77443868739205501</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.791191709844559</v>
+        <v>0.94300518134714995</v>
+      </c>
+      <c r="H15" s="63">
+        <v>0.95854922279792698</v>
+      </c>
+      <c r="I15" s="63">
+        <v>0.94645941278065604</v>
       </c>
       <c r="J15" s="13">
-        <v>0.55975820379965502</v>
+        <v>0.85146804835923995</v>
       </c>
       <c r="K15" s="15">
-        <v>0.56027633851468095</v>
+        <v>0.94300518134714995</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1412,28 +1508,28 @@
         <v>12</v>
       </c>
       <c r="D16" s="48">
-        <v>0.77409326424870495</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.61139896373057001</v>
+        <v>0.94645941278065604</v>
+      </c>
+      <c r="E16" s="64">
+        <v>0.95164075993091501</v>
       </c>
       <c r="F16" s="14">
-        <v>0.79689119170984501</v>
+        <v>0.932642487046632</v>
       </c>
       <c r="G16" s="14">
-        <v>0.46683937823834198</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.76597582037996503</v>
+        <v>0.93436960276338499</v>
+      </c>
+      <c r="H16" s="64">
+        <v>0.95682210708117399</v>
       </c>
       <c r="I16" s="14">
-        <v>0.77962003454231399</v>
+        <v>0.932642487046632</v>
       </c>
       <c r="J16" s="14">
-        <v>0.717962003454231</v>
-      </c>
-      <c r="K16" s="49">
-        <v>0.48134715025906699</v>
+        <v>0.91537132987910197</v>
+      </c>
+      <c r="K16" s="69">
+        <v>0.94818652849740903</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1447,28 +1543,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="50">
-        <v>0.790328151986183</v>
-      </c>
-      <c r="E17" s="51">
-        <v>0.87789291882556098</v>
+        <v>0.91709844559585496</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0.90155440414507804</v>
       </c>
       <c r="F17" s="51">
-        <v>0.87806563039723695</v>
+        <v>0.92055267702936106</v>
       </c>
       <c r="G17" s="51">
-        <v>0.82348877374784102</v>
+        <v>0.87910189982728904</v>
       </c>
       <c r="H17" s="51">
-        <v>0.83229706390328095</v>
-      </c>
-      <c r="I17" s="51">
-        <v>0.88255613126079502</v>
-      </c>
-      <c r="J17" s="51">
-        <v>0.85198618307426599</v>
+        <v>0.87219343696027596</v>
+      </c>
+      <c r="I17" s="66">
+        <v>0.94127806563039695</v>
+      </c>
+      <c r="J17" s="66">
+        <v>0.93955094991364396</v>
       </c>
       <c r="K17" s="52">
-        <v>0.844386873920553</v>
+        <v>0.90500863557858402</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1477,28 +1573,28 @@
         <v>12</v>
       </c>
       <c r="D18" s="47">
-        <v>0.79274611398963701</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.87789291882556098</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.899309153713299</v>
+        <v>0.92573402417962003</v>
+      </c>
+      <c r="E18" s="63">
+        <v>0.95164075993091501</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0.94645941278065604</v>
       </c>
       <c r="G18" s="13">
-        <v>0.87754749568221102</v>
+        <v>0.91537132987910197</v>
       </c>
       <c r="H18" s="13">
-        <v>0.88151986183074305</v>
+        <v>0.93782383419689097</v>
       </c>
       <c r="I18" s="13">
-        <v>0.88842832469775501</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0.88290155440414497</v>
+        <v>0.93955094991364396</v>
+      </c>
+      <c r="J18" s="63">
+        <v>0.94991364421416202</v>
       </c>
       <c r="K18" s="15">
-        <v>0.86563039723661495</v>
+        <v>0.92055267702936106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1510,28 +1606,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="47">
-        <v>0.85181347150259101</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.82918825561312604</v>
+        <v>0.90673575129533701</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0.93782383419689097</v>
       </c>
       <c r="F19" s="13">
-        <v>0.85457685664939498</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.81053540587219397</v>
+        <v>0.89810017271157205</v>
+      </c>
+      <c r="G19" s="63">
+        <v>0.94127806563039695</v>
       </c>
       <c r="H19" s="13">
-        <v>0.83005181347150303</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.88981001727115705</v>
+        <v>0.91709844559585496</v>
+      </c>
+      <c r="I19" s="63">
+        <v>0.94127806563039695</v>
       </c>
       <c r="J19" s="13">
-        <v>0.83471502590673596</v>
+        <v>0.91537132987910197</v>
       </c>
       <c r="K19" s="15">
-        <v>0.82797927461139897</v>
+        <v>0.92055267702936106</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1541,28 +1637,28 @@
         <v>12</v>
       </c>
       <c r="D20" s="48">
-        <v>0.88255613126079402</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.88013816925734001</v>
+        <v>0.92918825561312601</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.95336787564766801</v>
       </c>
       <c r="F20" s="14">
-        <v>0.84490500863557905</v>
+        <v>0.95164075993091501</v>
       </c>
       <c r="G20" s="14">
-        <v>0.87322970639032804</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.87409326424870504</v>
+        <v>0.94818652849740903</v>
+      </c>
+      <c r="H20" s="64">
+        <v>0.955094991364421</v>
       </c>
       <c r="I20" s="14">
-        <v>0.90241796200345403</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.91174438687392101</v>
+        <v>0.94818652849740903</v>
+      </c>
+      <c r="J20" s="64">
+        <v>0.955094991364421</v>
       </c>
       <c r="K20" s="49">
-        <v>0.86943005181347099</v>
+        <v>0.95164075993091501</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,7 +2005,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,7 +2608,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,11 +3207,939 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71">
+        <v>0.85267702936096701</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.83644214162348896</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.85630397236614897</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.836096718480138</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.83367875647668399</v>
+      </c>
+      <c r="I5" s="61">
+        <v>0.85405872193437005</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="K5" s="46">
+        <v>0.83402417962003506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.89119170984455998</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.86943005181347099</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0.89378238341968896</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.88618307426597598</v>
+      </c>
+      <c r="H6" s="63">
+        <v>0.90449050086355798</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0.92245250431778902</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.86960276338514697</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.86252158894646003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0.85906735751295304</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.84594127806563102</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0.87046632124352297</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.82970639032815197</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.84473229706390296</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0.89775474956822099</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0.87702936096718498</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.81623488773747799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.90587219343696002</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.89240069084628704</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.89430051813471501</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.85561312607944695</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.88013816925734001</v>
+      </c>
+      <c r="I8" s="64">
+        <v>0.92867012089809997</v>
+      </c>
+      <c r="J8" s="64">
+        <v>0.90189982728842799</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0.89050086355785796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="70">
+        <v>0.86407599309153704</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0.85146804835923995</v>
+      </c>
+      <c r="F9" s="66">
+        <v>0.87944732297063899</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.85837651122625203</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0.83385146804835897</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0.42521588946459399</v>
+      </c>
+      <c r="J9" s="66">
+        <v>0.86183074265975801</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0.85889464594127796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="62">
+        <v>0.87512953367875701</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.86822107081174504</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0.87806563039723695</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.86234887737478405</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0.87495682210708103</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.86113989637305699</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.86217616580310896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="62">
+        <v>0.86839378238342002</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.80328151986183105</v>
+      </c>
+      <c r="F11" s="63">
+        <v>0.85164075993091604</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.82037996545768599</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.81191709844559601</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.83816925734024195</v>
+      </c>
+      <c r="J11" s="63">
+        <v>0.86459412780656297</v>
+      </c>
+      <c r="K11" s="68">
+        <v>0.85630397236614897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0.90172711571675301</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.86390328151986195</v>
+      </c>
+      <c r="F12" s="64">
+        <v>0.88531951640759898</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.86683937823834201</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.84283246977547499</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.78480138169257296</v>
+      </c>
+      <c r="J12" s="64">
+        <v>0.899309153713299</v>
+      </c>
+      <c r="K12" s="49">
+        <v>0.85958549222797898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="70">
+        <v>0.86027633851467999</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0.81312607944732296</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.82746113989637304</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0.82348877374784102</v>
+      </c>
+      <c r="H13" s="66">
+        <v>0.84231433506044895</v>
+      </c>
+      <c r="I13" s="66">
+        <v>0.84231433506044895</v>
+      </c>
+      <c r="J13" s="51">
+        <v>0.83903281519861805</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0.84075993091537105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="62">
+        <v>0.87858376511226299</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.86701208981001698</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.87150259067357505</v>
+      </c>
+      <c r="G14" s="63">
+        <v>0.88480138169257305</v>
+      </c>
+      <c r="H14" s="63">
+        <v>0.88549222797927496</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.841968911917098</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.85993091537133004</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.86804835924006896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="62">
+        <v>0.76355785837651102</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.34507772020725402</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.28238341968911901</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.51295336787564805</v>
+      </c>
+      <c r="H15" s="63">
+        <v>0.77443868739205501</v>
+      </c>
+      <c r="I15" s="63">
+        <v>0.791191709844559</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.55975820379965502</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.56027633851468095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="65">
+        <v>0.77409326424870495</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.61139896373057001</v>
+      </c>
+      <c r="F16" s="64">
+        <v>0.79689119170984501</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.46683937823834198</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.76597582037996503</v>
+      </c>
+      <c r="I16" s="64">
+        <v>0.77962003454231399</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.717962003454231</v>
+      </c>
+      <c r="K16" s="49">
+        <v>0.48134715025906699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.790328151986183</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0.87806563039723695</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0.82348877374784102</v>
+      </c>
+      <c r="H17" s="51">
+        <v>0.83229706390328095</v>
+      </c>
+      <c r="I17" s="66">
+        <v>0.88255613126079502</v>
+      </c>
+      <c r="J17" s="51">
+        <v>0.85198618307426599</v>
+      </c>
+      <c r="K17" s="52">
+        <v>0.844386873920553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0.79274611398963701</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.87789291882556098</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0.899309153713299</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.87754749568221102</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.88151986183074305</v>
+      </c>
+      <c r="I18" s="63">
+        <v>0.88842832469775501</v>
+      </c>
+      <c r="J18" s="63">
+        <v>0.88290155440414497</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.86563039723661495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62">
+        <v>0.85181347150259101</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.82918825561312604</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0.85457685664939498</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.81053540587219397</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.83005181347150303</v>
+      </c>
+      <c r="I19" s="63">
+        <v>0.88981001727115705</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.83471502590673596</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.82797927461139897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="65">
+        <v>0.88255613126079402</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.88013816925734001</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.84490500863557905</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.87322970639032804</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.87409326424870504</v>
+      </c>
+      <c r="I20" s="64">
+        <v>0.90241796200345403</v>
+      </c>
+      <c r="J20" s="64">
+        <v>0.91174438687392101</v>
+      </c>
+      <c r="K20" s="49">
+        <v>0.86943005181347099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E17B74-8A06-473F-B1B4-0C752BEBC712}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,13 +4232,13 @@
       <c r="H5" s="13">
         <v>0.841105354058722</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="63">
         <v>0.89464594127806596</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="63">
         <v>0.89896373056994805</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="63">
         <v>0.862694300518135</v>
       </c>
     </row>
@@ -3229,16 +4253,16 @@
       <c r="E6" s="13">
         <v>0.862694300518135</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="63">
         <v>0.90155440414507804</v>
       </c>
       <c r="G6" s="13">
         <v>0.88773747841105399</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="63">
         <v>0.90241796200345403</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="63">
         <v>0.91882556131260795</v>
       </c>
       <c r="J6" s="13">
@@ -3256,7 +4280,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="63">
         <v>0.87651122625215905</v>
       </c>
       <c r="E7" s="13">
@@ -3271,10 +4295,10 @@
       <c r="H7" s="13">
         <v>0.85492227979274604</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="63">
         <v>0.88860103626942999</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="63">
         <v>0.87564766839378205</v>
       </c>
       <c r="K7" s="13">
@@ -3287,10 +4311,10 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="63">
         <v>0.90241796200345403</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="63">
         <v>0.90155440414507804</v>
       </c>
       <c r="F8" s="13">
@@ -3302,10 +4326,10 @@
       <c r="H8" s="13">
         <v>0.88946459412780698</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="63">
         <v>0.93436960276338499</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="63">
         <v>0.90155440414507804</v>
       </c>
       <c r="K8" s="13">
@@ -3322,13 +4346,13 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="63">
         <v>0.87132987910189996</v>
       </c>
       <c r="E9" s="13">
         <v>0.86183074265975801</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="63">
         <v>0.87737478411053504</v>
       </c>
       <c r="G9" s="13">
@@ -3343,7 +4367,7 @@
       <c r="J9" s="13">
         <v>0.85924006908462902</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="63">
         <v>0.86528497409326399</v>
       </c>
     </row>
@@ -3352,13 +4376,13 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="63">
         <v>0.88514680483592401</v>
       </c>
       <c r="E10" s="13">
         <v>0.87823834196891204</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="63">
         <v>0.88255613126079502</v>
       </c>
       <c r="G10" s="13">
@@ -3373,7 +4397,7 @@
       <c r="J10" s="13">
         <v>0.86528497409326399</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="63">
         <v>0.89032815198618298</v>
       </c>
     </row>
@@ -3385,7 +4409,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="63">
         <v>0.88255613126079502</v>
       </c>
       <c r="E11" s="13">
@@ -3400,10 +4424,10 @@
       <c r="H11" s="13">
         <v>0.81951640759930899</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="63">
         <v>0.93005181347150301</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="63">
         <v>0.88428324697754801</v>
       </c>
       <c r="K11" s="13">
@@ -3416,7 +4440,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="63">
         <v>0.91018998272884299</v>
       </c>
       <c r="E12" s="13">
@@ -3431,10 +4455,10 @@
       <c r="H12" s="13">
         <v>0.84542314335060498</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="63">
         <v>0.91018998272884299</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="63">
         <v>0.90069084628670104</v>
       </c>
       <c r="K12" s="13">
@@ -3451,7 +4475,7 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="63">
         <v>0.86528497409326399</v>
       </c>
       <c r="E13" s="13">
@@ -3463,13 +4487,13 @@
       <c r="G13" s="13">
         <v>0.82642487046632096</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="63">
         <v>0.85146804835923995</v>
       </c>
       <c r="I13" s="13">
         <v>0.83419689119171003</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="63">
         <v>0.84455958549222798</v>
       </c>
       <c r="K13" s="13">
@@ -3484,16 +4508,16 @@
       <c r="D14" s="13">
         <v>0.87478411053540595</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="63">
         <v>0.87564766839378205</v>
       </c>
       <c r="F14" s="13">
         <v>0.87737478411053604</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="63">
         <v>0.88860103626942999</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="63">
         <v>0.89378238341968896</v>
       </c>
       <c r="I14" s="13">
@@ -3514,7 +4538,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="63">
         <v>0.86614853195164099</v>
       </c>
       <c r="E15" s="13">
@@ -3526,10 +4550,10 @@
       <c r="G15" s="13">
         <v>0.53454231433506105</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="63">
         <v>0.93436960276338499</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="63">
         <v>0.80397236614853196</v>
       </c>
       <c r="J15" s="13">
@@ -3545,7 +4569,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="63">
         <v>0.91623488773747797</v>
       </c>
       <c r="E16" s="13">
@@ -3557,10 +4581,10 @@
       <c r="G16" s="13">
         <v>0.43868739205526802</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="63">
         <v>0.86960276338514697</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="63">
         <v>0.88341968911917101</v>
       </c>
       <c r="J16" s="13">
@@ -3580,13 +4604,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="63">
         <v>0.89810017271157205</v>
       </c>
       <c r="E17" s="13">
         <v>0.88255613126079502</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="63">
         <v>0.88946459412780698</v>
       </c>
       <c r="G17" s="13">
@@ -3595,7 +4619,7 @@
       <c r="H17" s="13">
         <v>0.84801381692573397</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="63">
         <v>0.89464594127806596</v>
       </c>
       <c r="J17" s="13">
@@ -3610,10 +4634,10 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="63">
         <v>0.91018998272884299</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="63">
         <v>0.90328151986183103</v>
       </c>
       <c r="F18" s="13">
@@ -3622,10 +4646,10 @@
       <c r="G18" s="13">
         <v>0.88082901554404203</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="63">
         <v>0.89982728842832505</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="63">
         <v>0.91278065630397198</v>
       </c>
       <c r="J18" s="13">
@@ -3643,7 +4667,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="63">
         <v>0.86701208981001698</v>
       </c>
       <c r="E19" s="13">
@@ -3658,10 +4682,10 @@
       <c r="H19" s="13">
         <v>0.83506044905008603</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="63">
         <v>0.89464594127806596</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="63">
         <v>0.85233160621761705</v>
       </c>
       <c r="K19" s="13">
@@ -3674,7 +4698,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="63">
         <v>0.89464594127806596</v>
       </c>
       <c r="E20" s="13">
@@ -3689,10 +4713,10 @@
       <c r="H20" s="13">
         <v>0.89291882556131297</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="63">
         <v>0.92746113989637302</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="63">
         <v>0.909326424870466</v>
       </c>
       <c r="K20" s="13">
@@ -3701,934 +4725,6 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="45">
-        <v>0.94300518134714995</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.94473229706390305</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.93436960276338499</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.92573402417962003</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.92227979274611405</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.94127806563039695</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="K5" s="46">
-        <v>0.93609671848013798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="47">
-        <v>0.95336787564766801</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.92400690846286704</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.93436960276338499</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.94300518134714995</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.94991364421416202</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.93609671848013798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="47">
-        <v>0.90155440414507804</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.89464594127806596</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.930915371329879</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.91018998272884299</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.91018998272884299</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0.91709844559585496</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0.89982728842832505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="48">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.92227979274611405</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.93609671848013798</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0.94473229706390305</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="K8" s="49">
-        <v>0.93609671848013798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="50">
-        <v>0.90846286701209</v>
-      </c>
-      <c r="E9" s="51">
-        <v>0.90846286701209</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.92573402417962003</v>
-      </c>
-      <c r="G9" s="51">
-        <v>0.92400690846286704</v>
-      </c>
-      <c r="H9" s="51">
-        <v>0.93609671848013798</v>
-      </c>
-      <c r="I9" s="51">
-        <v>0.87392055267702895</v>
-      </c>
-      <c r="J9" s="51">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="K9" s="52">
-        <v>0.93436960276338499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="47">
-        <v>0.91882556131260795</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.94300518134714995</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.94473229706390305</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.94991364421416202</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.94991364421416202</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.87392055267702895</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.93782383419689097</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.94127806563039695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="47">
-        <v>0.930915371329879</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.88773747841105399</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.91364421416234898</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.88255613126079502</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.863557858376511</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.95336787564766801</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.91537132987910197</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0.930915371329879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="48">
-        <v>0.95336787564766801</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.90328151986183103</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.92918825561312601</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.932642487046632</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0.93436960276338499</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0.955094991364421</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="K12" s="49">
-        <v>0.95854922279792698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="50">
-        <v>0.90500863557858402</v>
-      </c>
-      <c r="E13" s="51">
-        <v>0.87564766839378205</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.87737478411053504</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0.90673575129533701</v>
-      </c>
-      <c r="H13" s="51">
-        <v>0.89982728842832505</v>
-      </c>
-      <c r="I13" s="51">
-        <v>0.89810017271157205</v>
-      </c>
-      <c r="J13" s="51">
-        <v>0.91364421416234898</v>
-      </c>
-      <c r="K13" s="52">
-        <v>0.89119170984455998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="47">
-        <v>0.92400690846286704</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.91018998272884299</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.91191709844559599</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.92918825561312601</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.93955094991364396</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.92400690846286704</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.94127806563039695</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0.930915371329879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="47">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.94473229706390305</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.88255613126079502</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.94300518134714995</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.95854922279792698</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.85146804835923995</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0.94300518134714995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="48">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.95164075993091501</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.932642487046632</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.93436960276338499</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.95682210708117399</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.932642487046632</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.91537132987910197</v>
-      </c>
-      <c r="K16" s="49">
-        <v>0.94818652849740903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="50">
-        <v>0.91709844559585496</v>
-      </c>
-      <c r="E17" s="51">
-        <v>0.90155440414507804</v>
-      </c>
-      <c r="F17" s="51">
-        <v>0.92055267702936106</v>
-      </c>
-      <c r="G17" s="51">
-        <v>0.87910189982728904</v>
-      </c>
-      <c r="H17" s="51">
-        <v>0.87219343696027596</v>
-      </c>
-      <c r="I17" s="51">
-        <v>0.94127806563039695</v>
-      </c>
-      <c r="J17" s="51">
-        <v>0.93955094991364396</v>
-      </c>
-      <c r="K17" s="52">
-        <v>0.90500863557858402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="47">
-        <v>0.92573402417962003</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.95164075993091501</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.94645941278065604</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.91537132987910197</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.93782383419689097</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.93955094991364396</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0.94991364421416202</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0.92055267702936106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="47">
-        <v>0.90673575129533701</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.93782383419689097</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.89810017271157205</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.94127806563039695</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.91709844559585496</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.94127806563039695</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0.91537132987910197</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0.92055267702936106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="48">
-        <v>0.92918825561312601</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.95336787564766801</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0.95164075993091501</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.955094991364421</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0.94818652849740903</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.955094991364421</v>
-      </c>
-      <c r="K20" s="49">
-        <v>0.95164075993091501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
@@ -4813,7 +4909,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,10 +4919,11 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4891,28 +4988,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="72">
         <v>16</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="73">
         <v>19</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="54">
         <v>19</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="54">
         <v>35</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="54">
         <v>46</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="73">
         <v>6</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="73">
         <v>7</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="74">
         <v>22</v>
       </c>
     </row>
@@ -4921,28 +5018,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="75">
         <v>24</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="19">
         <v>53</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="19">
         <v>39</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="76">
         <v>4</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="76">
         <v>270</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="76">
         <v>14</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="77">
         <v>9</v>
       </c>
     </row>
@@ -4954,28 +5051,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="78">
         <v>11</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="19">
         <v>12</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="76">
         <v>17</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="76">
         <v>15</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="76">
         <v>6</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="76">
         <v>19</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="19">
         <v>5</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="77">
         <v>12</v>
       </c>
     </row>
@@ -4985,28 +5082,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="79">
         <v>20</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="42">
         <v>23</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="80">
         <v>19</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="42">
         <v>16</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="42">
         <v>13</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="80">
         <v>109</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="80">
         <v>16</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="81">
         <v>38</v>
       </c>
     </row>
@@ -5020,28 +5117,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="82">
         <v>46</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="83">
         <v>4</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="83">
         <v>13</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="83">
         <v>18</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="84">
         <v>8</v>
       </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29">
+      <c r="I9" s="83">
+        <v>1</v>
+      </c>
+      <c r="J9" s="84">
         <v>3</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="85">
         <v>10</v>
       </c>
     </row>
@@ -5050,28 +5147,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="78">
         <v>18</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="19">
         <v>9</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="76">
         <v>89</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="76">
         <v>49</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="76">
         <v>48</v>
       </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
         <v>49</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="77">
         <v>27</v>
       </c>
     </row>
@@ -5083,28 +5180,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="75">
         <v>3</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="19">
         <v>23</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="19">
         <v>7</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="19">
         <v>19</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="19">
         <v>9</v>
       </c>
-      <c r="I11" s="29">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29">
+      <c r="I11" s="76">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
         <v>4</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="86">
         <v>4</v>
       </c>
     </row>
@@ -5114,28 +5211,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="79">
         <v>18</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="42">
         <v>31</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="42">
         <v>15</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="42">
         <v>6</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="42">
         <v>4</v>
       </c>
-      <c r="I12" s="29">
-        <v>2</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I12" s="80">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
         <v>11</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="87">
         <v>23</v>
       </c>
     </row>
@@ -5149,28 +5246,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="88">
         <v>4</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="83">
         <v>61</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="83">
         <v>9</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="84">
         <v>11</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="83">
         <v>32</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="83">
         <v>11</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="84">
         <v>9</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="89">
         <v>10</v>
       </c>
     </row>
@@ -5179,28 +5276,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="78">
         <v>11</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="19">
         <v>17</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="19">
         <v>47</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="19">
         <v>9</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="76">
         <v>9</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="19">
         <v>25</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="76">
         <v>14</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="86">
         <v>59</v>
       </c>
     </row>
@@ -5212,28 +5309,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
-        <v>2</v>
-      </c>
-      <c r="E15" s="29">
-        <v>2</v>
-      </c>
-      <c r="F15" s="29">
-        <v>2</v>
-      </c>
-      <c r="G15" s="29">
-        <v>2</v>
-      </c>
-      <c r="H15" s="29">
-        <v>2</v>
-      </c>
-      <c r="I15" s="29">
-        <v>2</v>
-      </c>
-      <c r="J15" s="29">
-        <v>2</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="D15" s="75">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="76">
+        <v>2</v>
+      </c>
+      <c r="I15" s="76">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="77">
         <v>2</v>
       </c>
     </row>
@@ -5243,28 +5340,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29">
-        <v>2</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="D16" s="90">
+        <v>2</v>
+      </c>
+      <c r="E16" s="80">
+        <v>2</v>
+      </c>
+      <c r="F16" s="42">
         <v>11</v>
       </c>
-      <c r="G16" s="29">
-        <v>2</v>
-      </c>
-      <c r="H16" s="29">
-        <v>2</v>
-      </c>
-      <c r="I16" s="29">
-        <v>2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>2</v>
-      </c>
-      <c r="K16" s="29">
+      <c r="G16" s="42">
+        <v>2</v>
+      </c>
+      <c r="H16" s="80">
+        <v>2</v>
+      </c>
+      <c r="I16" s="42">
+        <v>2</v>
+      </c>
+      <c r="J16" s="42">
+        <v>2</v>
+      </c>
+      <c r="K16" s="87">
         <v>2</v>
       </c>
     </row>
@@ -5278,28 +5375,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="82">
         <v>3</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="84">
         <v>168</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="83">
         <v>10</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="83">
         <v>101</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="83">
         <v>134</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="84">
         <v>41</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="84">
         <v>11</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="89">
         <v>150</v>
       </c>
     </row>
@@ -5308,28 +5405,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="78">
         <v>260</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="76">
         <v>139</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="76">
         <v>26</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="19">
         <v>106</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="19">
         <v>120</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="19">
         <v>67</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="76">
         <v>11</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="77">
         <v>137</v>
       </c>
     </row>
@@ -5341,28 +5438,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="78">
         <v>4</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="76">
         <v>8</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="19">
         <v>42</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="76">
         <v>6</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="19">
         <v>5</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="76">
         <v>4</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="19">
         <v>8</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="77">
         <v>14</v>
       </c>
     </row>
@@ -5372,28 +5469,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="90">
         <v>20</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="80">
         <v>15</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="42">
         <v>16</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="42">
         <v>3</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="80">
         <v>4</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="42">
         <v>6</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="80">
         <v>22</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="81">
         <v>26</v>
       </c>
     </row>
@@ -5583,7 +5680,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5661,28 +5758,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="72">
         <v>10.6</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="73">
         <v>16.899999999999999</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="54">
         <v>14.2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="54">
         <v>24.9</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="54">
         <v>19.7</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="73">
         <v>142.1</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="73">
         <v>10.9</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="74">
         <v>19.2</v>
       </c>
     </row>
@@ -5691,7 +5788,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="75">
         <v>21.3</v>
       </c>
       <c r="E6" s="19">
@@ -5703,16 +5800,16 @@
       <c r="G6" s="19">
         <v>30</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="76">
         <v>24.7</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="76">
         <v>162.69999999999999</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="76">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="77">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -5724,28 +5821,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="78">
         <v>12.4</v>
       </c>
       <c r="E7" s="19">
         <v>22.1</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="76">
         <v>21.1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="76">
         <v>19.600000000000001</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="76">
         <v>20.399999999999999</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="76">
         <v>145.5</v>
       </c>
       <c r="J7" s="19">
         <v>10.3</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="77">
         <v>15.4</v>
       </c>
     </row>
@@ -5755,28 +5852,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="79">
         <v>19.3</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="42">
         <v>22.9</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="80">
         <v>18.399999999999999</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="42">
         <v>19.8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="42">
         <v>26</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="80">
         <v>145.80000000000001</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="80">
         <v>12.2</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="81">
         <v>27.5</v>
       </c>
     </row>
@@ -5790,28 +5887,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="82">
         <v>20.3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="83">
         <v>19</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="83">
         <v>22.6</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="83">
         <v>19.5</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="84">
         <v>22.1</v>
       </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="I9" s="83">
+        <v>1</v>
+      </c>
+      <c r="J9" s="84">
         <v>11.8</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="85">
         <v>24</v>
       </c>
     </row>
@@ -5820,19 +5917,19 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="78">
         <v>20.6</v>
       </c>
       <c r="E10" s="19">
         <v>12.9</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="76">
         <v>37</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="76">
         <v>31.6</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="76">
         <v>27.2</v>
       </c>
       <c r="I10" s="19">
@@ -5841,7 +5938,7 @@
       <c r="J10" s="19">
         <v>24.2</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="77">
         <v>31.3</v>
       </c>
     </row>
@@ -5853,7 +5950,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="75">
         <v>7.9</v>
       </c>
       <c r="E11" s="19">
@@ -5868,13 +5965,13 @@
       <c r="H11" s="19">
         <v>17.3</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="76">
         <v>2</v>
       </c>
       <c r="J11" s="19">
         <v>8</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="86">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -5884,28 +5981,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="79">
         <v>11.6</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="42">
         <v>22.9</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="42">
         <v>15.5</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="42">
         <v>26.4</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="42">
         <v>21.8</v>
       </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="I12" s="80">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="87">
         <v>17.8</v>
       </c>
     </row>
@@ -5919,28 +6016,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="88">
         <v>22.7</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="83">
         <v>17.899999999999999</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="83">
         <v>29.4</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="84">
         <v>18.899999999999999</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="83">
         <v>25.2</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="83">
         <v>25.3</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="84">
         <v>14.3</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="89">
         <v>30.6</v>
       </c>
     </row>
@@ -5949,7 +6046,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="78">
         <v>18.399999999999999</v>
       </c>
       <c r="E14" s="19">
@@ -5961,16 +6058,16 @@
       <c r="G14" s="19">
         <v>31.6</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="76">
         <v>26.7</v>
       </c>
       <c r="I14" s="19">
         <v>32.299999999999997</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="76">
         <v>16.600000000000001</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="86">
         <v>37.6</v>
       </c>
     </row>
@@ -5982,7 +6079,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="75">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -5994,16 +6091,16 @@
       <c r="G15" s="19">
         <v>2</v>
       </c>
-      <c r="H15" s="19">
-        <v>2</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="H15" s="76">
+        <v>2</v>
+      </c>
+      <c r="I15" s="76">
         <v>2</v>
       </c>
       <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="77">
         <v>2</v>
       </c>
     </row>
@@ -6013,28 +6110,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="D16" s="90">
+        <v>2</v>
+      </c>
+      <c r="E16" s="80">
+        <v>2</v>
+      </c>
+      <c r="F16" s="42">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G16" s="19">
-        <v>2</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>2</v>
-      </c>
-      <c r="J16" s="19">
-        <v>2</v>
-      </c>
-      <c r="K16" s="19">
+      <c r="G16" s="42">
+        <v>2</v>
+      </c>
+      <c r="H16" s="80">
+        <v>2</v>
+      </c>
+      <c r="I16" s="42">
+        <v>2</v>
+      </c>
+      <c r="J16" s="42">
+        <v>2</v>
+      </c>
+      <c r="K16" s="87">
         <v>2</v>
       </c>
     </row>
@@ -6048,28 +6145,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="82">
         <v>134.80000000000001</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="84">
         <v>132.9</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="83">
         <v>21.7</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="83">
         <v>75.5</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="83">
         <v>89.5</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="84">
         <v>24.7</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="84">
         <v>13.5</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="89">
         <v>107.1</v>
       </c>
     </row>
@@ -6078,13 +6175,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="78">
         <v>117.6</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="76">
         <v>123.9</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="76">
         <v>18.3</v>
       </c>
       <c r="G18" s="19">
@@ -6096,10 +6193,10 @@
       <c r="I18" s="19">
         <v>31.8</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="76">
         <v>16.5</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="77">
         <v>90</v>
       </c>
     </row>
@@ -6111,28 +6208,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="78">
         <v>21.6</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="76">
         <v>17.5</v>
       </c>
       <c r="F19" s="19">
         <v>29.5</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="76">
         <v>22.7</v>
       </c>
       <c r="H19" s="19">
         <v>24.6</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="76">
         <v>13.1</v>
       </c>
       <c r="J19" s="19">
         <v>16</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="77">
         <v>34</v>
       </c>
     </row>
@@ -6142,28 +6239,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="90">
         <v>26.8</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="80">
         <v>22.5</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="42">
         <v>19.100000000000001</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="42">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="80">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="42">
         <v>14</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="80">
         <v>16.100000000000001</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="81">
         <v>22.7</v>
       </c>
     </row>
@@ -6353,7 +6450,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6431,28 +6528,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29">
+      <c r="D5" s="72">
+        <v>1</v>
+      </c>
+      <c r="E5" s="73">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54">
+        <v>1</v>
+      </c>
+      <c r="H5" s="54">
+        <v>1</v>
+      </c>
+      <c r="I5" s="73">
+        <v>1</v>
+      </c>
+      <c r="J5" s="73">
+        <v>1</v>
+      </c>
+      <c r="K5" s="74">
         <v>1</v>
       </c>
     </row>
@@ -6461,28 +6558,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29">
-        <v>2</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="75">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
         <v>10</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="19">
         <v>4</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="19">
         <v>4</v>
       </c>
-      <c r="H6" s="29">
-        <v>2</v>
-      </c>
-      <c r="I6" s="29">
+      <c r="H6" s="76">
+        <v>2</v>
+      </c>
+      <c r="I6" s="76">
         <v>7</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="76">
         <v>4</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="77">
         <v>8</v>
       </c>
     </row>
@@ -6494,28 +6591,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29">
-        <v>1</v>
-      </c>
-      <c r="G7" s="29">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29">
-        <v>1</v>
-      </c>
-      <c r="I7" s="29">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29">
-        <v>1</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="D7" s="78">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="76">
+        <v>1</v>
+      </c>
+      <c r="G7" s="76">
+        <v>1</v>
+      </c>
+      <c r="H7" s="76">
+        <v>1</v>
+      </c>
+      <c r="I7" s="76">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="77">
         <v>1</v>
       </c>
     </row>
@@ -6525,28 +6622,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="79">
         <v>7</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="42">
         <v>5</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="80">
         <v>3</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="42">
         <v>9</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="42">
         <v>10</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="80">
         <v>5</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="80">
         <v>9</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="81">
         <v>9</v>
       </c>
     </row>
@@ -6560,28 +6657,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29">
-        <v>1</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="D9" s="82">
+        <v>1</v>
+      </c>
+      <c r="E9" s="83">
+        <v>1</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1</v>
+      </c>
+      <c r="G9" s="83">
+        <v>1</v>
+      </c>
+      <c r="H9" s="84">
+        <v>1</v>
+      </c>
+      <c r="I9" s="83">
+        <v>1</v>
+      </c>
+      <c r="J9" s="84">
+        <v>1</v>
+      </c>
+      <c r="K9" s="85">
         <v>1</v>
       </c>
     </row>
@@ -6590,28 +6687,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="78">
         <v>6</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="19">
         <v>5</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="76">
         <v>9</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="76">
         <v>10</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="76">
         <v>7</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="19">
         <v>5</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="19">
         <v>6</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="77">
         <v>5</v>
       </c>
     </row>
@@ -6623,28 +6720,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
-        <v>1</v>
-      </c>
-      <c r="E11" s="29">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1</v>
-      </c>
-      <c r="H11" s="29">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29">
-        <v>1</v>
-      </c>
-      <c r="K11" s="29">
+      <c r="D11" s="75">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="76">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="86">
         <v>1</v>
       </c>
     </row>
@@ -6654,28 +6751,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="79">
         <v>7</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="42">
         <v>8</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="42">
         <v>7</v>
       </c>
-      <c r="G12" s="29">
-        <v>2</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="G12" s="42">
+        <v>2</v>
+      </c>
+      <c r="H12" s="42">
         <v>8</v>
       </c>
-      <c r="I12" s="29">
-        <v>2</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I12" s="80">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
         <v>8</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="87">
         <v>6</v>
       </c>
     </row>
@@ -6689,28 +6786,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <v>1</v>
-      </c>
-      <c r="G13" s="29">
-        <v>1</v>
-      </c>
-      <c r="H13" s="29">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29">
-        <v>1</v>
-      </c>
-      <c r="K13" s="29">
+      <c r="D13" s="88">
+        <v>1</v>
+      </c>
+      <c r="E13" s="83">
+        <v>1</v>
+      </c>
+      <c r="F13" s="83">
+        <v>1</v>
+      </c>
+      <c r="G13" s="84">
+        <v>1</v>
+      </c>
+      <c r="H13" s="83">
+        <v>1</v>
+      </c>
+      <c r="I13" s="83">
+        <v>1</v>
+      </c>
+      <c r="J13" s="84">
+        <v>1</v>
+      </c>
+      <c r="K13" s="89">
         <v>1</v>
       </c>
     </row>
@@ -6719,28 +6816,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="78">
         <v>3</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="19">
         <v>9</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="19">
         <v>9</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="76">
         <v>3</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="19">
         <v>7</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="76">
         <v>6</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="86">
         <v>9</v>
       </c>
     </row>
@@ -6752,28 +6849,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <v>1</v>
-      </c>
-      <c r="G15" s="29">
-        <v>1</v>
-      </c>
-      <c r="H15" s="29">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29">
-        <v>1</v>
-      </c>
-      <c r="J15" s="29">
-        <v>1</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="D15" s="75">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="76">
+        <v>1</v>
+      </c>
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="77">
         <v>1</v>
       </c>
     </row>
@@ -6783,28 +6880,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="90">
         <v>6</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="80">
         <v>10</v>
       </c>
-      <c r="F16" s="29">
-        <v>2</v>
-      </c>
-      <c r="G16" s="29">
+      <c r="F16" s="42">
+        <v>2</v>
+      </c>
+      <c r="G16" s="42">
         <v>6</v>
       </c>
-      <c r="H16" s="29">
-        <v>2</v>
-      </c>
-      <c r="I16" s="29">
+      <c r="H16" s="80">
+        <v>2</v>
+      </c>
+      <c r="I16" s="42">
         <v>3</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="42">
         <v>10</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="87">
         <v>4</v>
       </c>
     </row>
@@ -6818,28 +6915,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29">
-        <v>1</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1</v>
-      </c>
-      <c r="H17" s="29">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="29">
-        <v>1</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="D17" s="82">
+        <v>1</v>
+      </c>
+      <c r="E17" s="84">
+        <v>1</v>
+      </c>
+      <c r="F17" s="83">
+        <v>1</v>
+      </c>
+      <c r="G17" s="83">
+        <v>1</v>
+      </c>
+      <c r="H17" s="83">
+        <v>1</v>
+      </c>
+      <c r="I17" s="84">
+        <v>1</v>
+      </c>
+      <c r="J17" s="84">
+        <v>1</v>
+      </c>
+      <c r="K17" s="89">
         <v>1</v>
       </c>
     </row>
@@ -6848,28 +6945,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="78">
         <v>6</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="76">
         <v>10</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="76">
         <v>8</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="19">
         <v>10</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="19">
         <v>9</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="19">
         <v>7</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="76">
         <v>7</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="77">
         <v>5</v>
       </c>
     </row>
@@ -6881,28 +6978,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="E19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29">
-        <v>1</v>
-      </c>
-      <c r="G19" s="29">
-        <v>1</v>
-      </c>
-      <c r="H19" s="29">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29">
-        <v>1</v>
-      </c>
-      <c r="J19" s="29">
-        <v>1</v>
-      </c>
-      <c r="K19" s="29">
+      <c r="D19" s="78">
+        <v>1</v>
+      </c>
+      <c r="E19" s="76">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="76">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="76">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="77">
         <v>1</v>
       </c>
     </row>
@@ -6912,28 +7009,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="90">
         <v>9</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="80">
         <v>4</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="42">
         <v>4</v>
       </c>
-      <c r="G20" s="29">
-        <v>2</v>
-      </c>
-      <c r="H20" s="29">
+      <c r="G20" s="42">
+        <v>2</v>
+      </c>
+      <c r="H20" s="80">
         <v>3</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="42">
         <v>6</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="80">
         <v>6</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="81">
         <v>10</v>
       </c>
     </row>
@@ -7123,7 +7220,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7201,28 +7298,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="D5" s="72">
+        <v>1</v>
+      </c>
+      <c r="E5" s="73">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54">
+        <v>1</v>
+      </c>
+      <c r="H5" s="54">
+        <v>1</v>
+      </c>
+      <c r="I5" s="73">
+        <v>1</v>
+      </c>
+      <c r="J5" s="73">
+        <v>1</v>
+      </c>
+      <c r="K5" s="74">
         <v>1</v>
       </c>
     </row>
@@ -7231,7 +7328,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="75">
         <v>3.8</v>
       </c>
       <c r="E6" s="19">
@@ -7243,16 +7340,16 @@
       <c r="G6" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="76">
         <v>6.4</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="76">
         <v>5.7</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="76">
         <v>4.2</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="77">
         <v>5</v>
       </c>
     </row>
@@ -7264,28 +7361,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="78">
         <v>1</v>
       </c>
       <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
+      <c r="F7" s="76">
+        <v>1</v>
+      </c>
+      <c r="G7" s="76">
+        <v>1</v>
+      </c>
+      <c r="H7" s="76">
+        <v>1</v>
+      </c>
+      <c r="I7" s="76">
         <v>1</v>
       </c>
       <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="77">
         <v>1</v>
       </c>
     </row>
@@ -7295,28 +7392,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="79">
         <v>6.3</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="42">
         <v>6.1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="80">
         <v>5.9</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="42">
         <v>6.8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="42">
         <v>6.1</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="80">
         <v>6.5</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="80">
         <v>7.4</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="81">
         <v>7.1</v>
       </c>
     </row>
@@ -7330,28 +7427,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="D9" s="82">
+        <v>1</v>
+      </c>
+      <c r="E9" s="83">
+        <v>1</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1</v>
+      </c>
+      <c r="G9" s="83">
+        <v>1</v>
+      </c>
+      <c r="H9" s="84">
+        <v>1</v>
+      </c>
+      <c r="I9" s="83">
+        <v>1</v>
+      </c>
+      <c r="J9" s="84">
+        <v>1</v>
+      </c>
+      <c r="K9" s="85">
         <v>1</v>
       </c>
     </row>
@@ -7360,19 +7457,19 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="78">
         <v>5.8</v>
       </c>
       <c r="E10" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="76">
         <v>6.1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="76">
         <v>7.4</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="76">
         <v>6.8</v>
       </c>
       <c r="I10" s="19">
@@ -7381,7 +7478,7 @@
       <c r="J10" s="19">
         <v>4.3</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="77">
         <v>6.9</v>
       </c>
     </row>
@@ -7393,7 +7490,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="75">
         <v>1</v>
       </c>
       <c r="E11" s="19">
@@ -7408,13 +7505,13 @@
       <c r="H11" s="19">
         <v>1</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="76">
         <v>1</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="86">
         <v>1</v>
       </c>
     </row>
@@ -7424,28 +7521,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="79">
         <v>5.3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="42">
         <v>6.3</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="42">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="42">
         <v>5.3</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="42">
         <v>6.5</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="80">
         <v>5</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="42">
         <v>6.4</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="87">
         <v>5.9</v>
       </c>
     </row>
@@ -7459,28 +7556,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="D13" s="88">
+        <v>1</v>
+      </c>
+      <c r="E13" s="83">
+        <v>1</v>
+      </c>
+      <c r="F13" s="83">
+        <v>1</v>
+      </c>
+      <c r="G13" s="84">
+        <v>1</v>
+      </c>
+      <c r="H13" s="83">
+        <v>1</v>
+      </c>
+      <c r="I13" s="83">
+        <v>1</v>
+      </c>
+      <c r="J13" s="84">
+        <v>1</v>
+      </c>
+      <c r="K13" s="89">
         <v>1</v>
       </c>
     </row>
@@ -7489,7 +7586,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="78">
         <v>7</v>
       </c>
       <c r="E14" s="19">
@@ -7501,16 +7598,16 @@
       <c r="G14" s="19">
         <v>7.6</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="76">
         <v>6.7</v>
       </c>
       <c r="I14" s="19">
         <v>7.6</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="76">
         <v>5.4</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="86">
         <v>6.4</v>
       </c>
     </row>
@@ -7522,7 +7619,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="75">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -7534,16 +7631,16 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="H15" s="76">
+        <v>1</v>
+      </c>
+      <c r="I15" s="76">
         <v>1</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="77">
         <v>1</v>
       </c>
     </row>
@@ -7553,28 +7650,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="90">
         <v>7</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="80">
         <v>5</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="42">
         <v>3.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="42">
         <v>5.5</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="80">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="42">
         <v>6.2</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="42">
         <v>7.2</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="87">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7588,28 +7685,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
+      <c r="D17" s="82">
+        <v>1</v>
+      </c>
+      <c r="E17" s="84">
+        <v>1</v>
+      </c>
+      <c r="F17" s="83">
+        <v>1</v>
+      </c>
+      <c r="G17" s="83">
+        <v>1</v>
+      </c>
+      <c r="H17" s="83">
+        <v>1</v>
+      </c>
+      <c r="I17" s="84">
+        <v>1</v>
+      </c>
+      <c r="J17" s="84">
+        <v>1</v>
+      </c>
+      <c r="K17" s="89">
         <v>1</v>
       </c>
     </row>
@@ -7618,13 +7715,13 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="78">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="76">
         <v>6.2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="76">
         <v>5.9</v>
       </c>
       <c r="G18" s="19">
@@ -7636,10 +7733,10 @@
       <c r="I18" s="19">
         <v>6.2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="76">
         <v>4.8</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="77">
         <v>5.2</v>
       </c>
     </row>
@@ -7651,28 +7748,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="78">
+        <v>1</v>
+      </c>
+      <c r="E19" s="76">
         <v>1</v>
       </c>
       <c r="F19" s="19">
         <v>1</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="76">
         <v>1</v>
       </c>
       <c r="H19" s="19">
         <v>1</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="76">
         <v>1</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="77">
         <v>1</v>
       </c>
     </row>
@@ -7682,28 +7779,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="90">
         <v>6.6</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="80">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="42">
         <v>7.7</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="42">
         <v>6.4</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="80">
         <v>6.6</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="42">
         <v>5.5</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="80">
         <v>6.2</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="81">
         <v>5.9</v>
       </c>
     </row>
@@ -7893,7 +7990,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9032,7 +9129,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
